--- a/Proyecto/datos.xlsx
+++ b/Proyecto/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ale/PycharmProjects/djangoProject/Proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFF8373-BCD0-904A-A998-D4EDD9B2F5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E83F2E-B120-AE41-BB63-327B24E0C8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{AB8DB9F7-4BC2-074A-A49D-3E2A2BA6DE16}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Monumento</t>
   </si>
@@ -91,19 +91,54 @@
   </si>
   <si>
     <t>/Users/ale/Downloads/image.jpg</t>
+  </si>
+  <si>
+    <t>Oceanografic</t>
+  </si>
+  <si>
+    <t>Oceanogràfic (en español: Oceanográfico) es un complejo obra de los arquitectos Félix Candela y José María Tomás Llavador, y los ingenieros Alberto Domingo y Carlos Lázaro, donde se representa los diferentes hábitats marinos (mares y océanos) en una superficie de unos 110 000 m². Se encuentra situado en la zona este de la ciudad de Valencia (España), integrado dentro del complejo conocido como Ciudad de las Artes y las Ciencias. Fue inaugurado el 14 de febrero de 2003 y, desde el año 2016, se encuentra gestionado por la empresa Avanqua.</t>
+  </si>
+  <si>
+    <t>oceanografic</t>
+  </si>
+  <si>
+    <t>/Users/ale/Downloads/275px-L'Oceanografic_(Valencia,_Spain)_01.jpg</t>
+  </si>
+  <si>
+    <t>Aquarium</t>
+  </si>
+  <si>
+    <t>En 1995 se construyó en la parte suroeste del recinto el Aquarium, con forma de pirámide de cristal, mide 3.000 m². </t>
+  </si>
+  <si>
+    <t>En 1997, comenzaron las exhibiciones de vuelos de aves rapaces y exóticas en una zona próxima al delfinario. Ese mismo año los entonces propietarios, (Banco Bilbao Vizcaya, los herederos de Lleó de la Viña y la sociedad Patriber) vendieron el negocio al Parque de Atracciones de Madrid (Parques Reunidos).6​</t>
+  </si>
+  <si>
+    <t>aquarium</t>
+  </si>
+  <si>
+    <t>/Users/ale/Downloads/IMG_20150616_140114719.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,14 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555971FE-AEA6-6643-AEA0-2DA97C1D52AC}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +543,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -532,7 +566,7 @@
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -555,11 +589,11 @@
       <c r="F5">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -578,8 +612,59 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1995</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
